--- a/xlsx/美国总统就职典礼_intext.xlsx
+++ b/xlsx/美国总统就职典礼_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
   <si>
     <t>美国总统就职典礼</t>
   </si>
@@ -29,7 +29,7 @@
     <t>2009年美国总统就职典礼</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国总统就职典礼</t>
+    <t>政策_政策_美国_美国总统就职典礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%B1%E5%85%B5</t>
   </si>
   <si>
-    <t>閱兵</t>
+    <t>阅兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E5%B0%B1%E8%81%B7%E5%85%B8%E7%A6%AE</t>
   </si>
   <si>
-    <t>Template talk-美國總統就職典禮</t>
+    <t>Template talk-美国总统就职典礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%AC%AC%E4%B8%80%E6%AC%A1%E7%B8%BD%E7%B5%B1%E5%B0%B1%E8%81%B7%E5%85%B8%E7%A6%AE</t>
   </si>
   <si>
-    <t>華盛頓第一次總統就職典禮</t>
+    <t>华盛顿第一次总统就职典礼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Second_inauguration_of_George_Washington</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97%C2%B7%E7%BE%85%E6%96%AF%E7%A6%8F%E7%AC%AC%E5%9B%9B%E6%AC%A1%E7%B8%BD%E7%B5%B1%E5%B0%B1%E8%81%B7%E5%85%B8%E7%A6%AE</t>
   </si>
   <si>
-    <t>富蘭克林·羅斯福第四次總統就職典禮</t>
+    <t>富兰克林·罗斯福第四次总统就职典礼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/First_inauguration_of_Harry_S._Truman</t>
@@ -503,9 +503,6 @@
     <t>https://zh.wikipedia.org/wiki/2009%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E5%B0%B1%E8%81%B7%E5%85%B8%E7%A6%AE</t>
   </si>
   <si>
-    <t>2009年美國總統就職典禮</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Second_inauguration_of_Barack_Obama</t>
   </si>
   <si>
@@ -515,7 +512,7 @@
     <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E5%B0%B1%E8%81%B7%E5%85%B8%E7%A6%AE</t>
   </si>
   <si>
-    <t>2017年美國總統就職典禮</t>
+    <t>2017年美国总统就职典礼</t>
   </si>
 </sst>
 </file>
@@ -3206,7 +3203,7 @@
         <v>161</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3232,10 +3229,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3261,10 +3258,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
